--- a/src/main/resources/template/Device_Submission_Template.xlsx
+++ b/src/main/resources/template/Device_Submission_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcorsini\Desktop\newNewWorkspace\ATLegMav\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF93B72-82A1-4B2B-BA43-E0C0938A0805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C8BAE4-3C12-4A3C-91CD-F24A46258933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD2A8F0D-D308-4C0F-B4E5-3D67D29D043D}"/>
+    <workbookView xWindow="8910" yWindow="-21710" windowWidth="38620" windowHeight="21220" xr2:uid="{CD2A8F0D-D308-4C0F-B4E5-3D67D29D043D}"/>
   </bookViews>
   <sheets>
     <sheet name="ADT BYOD Activation - Verizon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
   <si>
     <t>BYOD Activation (25 or more)</t>
   </si>
@@ -443,7 +443,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>739010</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>87735</xdr:rowOff>
+      <xdr:rowOff>90910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F99B35-FC25-4775-B7FF-80F7E6DEFC1B}">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,8 +2042,12 @@
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="15"/>
+      <c r="D54" s="17">
+        <v>561</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F54" s="15"/>
       <c r="G54" s="18"/>
       <c r="H54" s="18"/>
@@ -2061,8 +2065,12 @@
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="15"/>
+      <c r="D55" s="17">
+        <v>561</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F55" s="15"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
@@ -2080,8 +2088,12 @@
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="15"/>
+      <c r="D56" s="17">
+        <v>561</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F56" s="15"/>
       <c r="G56" s="18"/>
       <c r="H56" s="18"/>
@@ -2099,8 +2111,12 @@
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="15"/>
+      <c r="D57" s="17">
+        <v>561</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F57" s="15"/>
       <c r="G57" s="18"/>
       <c r="H57" s="18"/>
@@ -2118,8 +2134,12 @@
       </c>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="15"/>
+      <c r="D58" s="17">
+        <v>561</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F58" s="15"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
@@ -2137,8 +2157,12 @@
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="15"/>
+      <c r="D59" s="17">
+        <v>561</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F59" s="15"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
@@ -2156,8 +2180,12 @@
       </c>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="15"/>
+      <c r="D60" s="17">
+        <v>561</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F60" s="15"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
@@ -2175,8 +2203,12 @@
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="15"/>
+      <c r="D61" s="17">
+        <v>561</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F61" s="15"/>
       <c r="G61" s="18"/>
       <c r="H61" s="18"/>
@@ -2194,8 +2226,12 @@
       </c>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="15"/>
+      <c r="D62" s="17">
+        <v>561</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F62" s="15"/>
       <c r="G62" s="18"/>
       <c r="H62" s="18"/>
@@ -2213,8 +2249,12 @@
       </c>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="15"/>
+      <c r="D63" s="17">
+        <v>561</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F63" s="15"/>
       <c r="G63" s="18"/>
       <c r="H63" s="18"/>
@@ -2232,8 +2272,12 @@
       </c>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="15"/>
+      <c r="D64" s="17">
+        <v>561</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F64" s="15"/>
       <c r="G64" s="18"/>
       <c r="H64" s="18"/>
@@ -2251,8 +2295,12 @@
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="15"/>
+      <c r="D65" s="17">
+        <v>561</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F65" s="15"/>
       <c r="G65" s="18"/>
       <c r="H65" s="18"/>
@@ -2270,8 +2318,12 @@
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="15"/>
+      <c r="D66" s="17">
+        <v>561</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F66" s="15"/>
       <c r="G66" s="18"/>
       <c r="H66" s="18"/>
@@ -2289,8 +2341,12 @@
       </c>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="15"/>
+      <c r="D67" s="17">
+        <v>561</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F67" s="15"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
@@ -2308,8 +2364,12 @@
       </c>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="15"/>
+      <c r="D68" s="17">
+        <v>561</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F68" s="15"/>
       <c r="G68" s="18"/>
       <c r="H68" s="18"/>
@@ -2327,8 +2387,12 @@
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="15"/>
+      <c r="D69" s="17">
+        <v>561</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F69" s="15"/>
       <c r="G69" s="18"/>
       <c r="H69" s="18"/>
@@ -2346,8 +2410,12 @@
       </c>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="15"/>
+      <c r="D70" s="17">
+        <v>561</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F70" s="15"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
@@ -2365,8 +2433,12 @@
       </c>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="15"/>
+      <c r="D71" s="17">
+        <v>561</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F71" s="15"/>
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
@@ -2384,8 +2456,12 @@
       </c>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="15"/>
+      <c r="D72" s="17">
+        <v>561</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F72" s="15"/>
       <c r="G72" s="18"/>
       <c r="H72" s="18"/>
@@ -2403,8 +2479,12 @@
       </c>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="15"/>
+      <c r="D73" s="17">
+        <v>561</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F73" s="15"/>
       <c r="G73" s="18"/>
       <c r="H73" s="18"/>
@@ -2422,8 +2502,12 @@
       </c>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="15"/>
+      <c r="D74" s="17">
+        <v>561</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F74" s="15"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
@@ -2441,8 +2525,12 @@
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="15"/>
+      <c r="D75" s="17">
+        <v>561</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F75" s="15"/>
       <c r="G75" s="18"/>
       <c r="H75" s="18"/>
@@ -2460,8 +2548,12 @@
       </c>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="15"/>
+      <c r="D76" s="17">
+        <v>561</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F76" s="15"/>
       <c r="G76" s="18"/>
       <c r="H76" s="18"/>
@@ -2479,8 +2571,12 @@
       </c>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="15"/>
+      <c r="D77" s="17">
+        <v>561</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F77" s="15"/>
       <c r="G77" s="18"/>
       <c r="H77" s="18"/>
@@ -2498,8 +2594,12 @@
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="15"/>
+      <c r="D78" s="17">
+        <v>561</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F78" s="15"/>
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
@@ -2517,8 +2617,12 @@
       </c>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="15"/>
+      <c r="D79" s="17">
+        <v>561</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F79" s="15"/>
       <c r="G79" s="18"/>
       <c r="H79" s="18"/>
@@ -2536,8 +2640,12 @@
       </c>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="15"/>
+      <c r="D80" s="17">
+        <v>561</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F80" s="15"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
@@ -2555,8 +2663,12 @@
       </c>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="15"/>
+      <c r="D81" s="17">
+        <v>561</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F81" s="15"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
@@ -2574,8 +2686,12 @@
       </c>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="15"/>
+      <c r="D82" s="17">
+        <v>561</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F82" s="15"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
@@ -2593,8 +2709,12 @@
       </c>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="15"/>
+      <c r="D83" s="17">
+        <v>561</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F83" s="15"/>
       <c r="G83" s="18"/>
       <c r="H83" s="18"/>
@@ -2612,8 +2732,12 @@
       </c>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="15"/>
+      <c r="D84" s="17">
+        <v>561</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F84" s="15"/>
       <c r="G84" s="18"/>
       <c r="H84" s="18"/>
@@ -2631,8 +2755,12 @@
       </c>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="15"/>
+      <c r="D85" s="17">
+        <v>561</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F85" s="15"/>
       <c r="G85" s="18"/>
       <c r="H85" s="18"/>
@@ -2650,8 +2778,12 @@
       </c>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="15"/>
+      <c r="D86" s="17">
+        <v>561</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F86" s="15"/>
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
@@ -2669,8 +2801,12 @@
       </c>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="15"/>
+      <c r="D87" s="17">
+        <v>561</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F87" s="15"/>
       <c r="G87" s="18"/>
       <c r="H87" s="18"/>
@@ -2688,8 +2824,12 @@
       </c>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="15"/>
+      <c r="D88" s="17">
+        <v>561</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F88" s="15"/>
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
@@ -2707,8 +2847,12 @@
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="15"/>
+      <c r="D89" s="17">
+        <v>561</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F89" s="15"/>
       <c r="G89" s="18"/>
       <c r="H89" s="18"/>
@@ -2726,8 +2870,12 @@
       </c>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="15"/>
+      <c r="D90" s="17">
+        <v>561</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F90" s="15"/>
       <c r="G90" s="18"/>
       <c r="H90" s="18"/>
@@ -2745,8 +2893,12 @@
       </c>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="15"/>
+      <c r="D91" s="17">
+        <v>561</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F91" s="15"/>
       <c r="G91" s="18"/>
       <c r="H91" s="18"/>
@@ -2764,8 +2916,12 @@
       </c>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="15"/>
+      <c r="D92" s="17">
+        <v>561</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F92" s="15"/>
       <c r="G92" s="18"/>
       <c r="H92" s="18"/>
@@ -2783,8 +2939,12 @@
       </c>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="15"/>
+      <c r="D93" s="17">
+        <v>561</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F93" s="15"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
@@ -2802,8 +2962,12 @@
       </c>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="15"/>
+      <c r="D94" s="17">
+        <v>561</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F94" s="15"/>
       <c r="G94" s="18"/>
       <c r="H94" s="18"/>
@@ -2821,8 +2985,12 @@
       </c>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="15"/>
+      <c r="D95" s="17">
+        <v>561</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F95" s="15"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -2840,8 +3008,12 @@
       </c>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="15"/>
+      <c r="D96" s="17">
+        <v>561</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F96" s="15"/>
       <c r="G96" s="18"/>
       <c r="H96" s="18"/>
@@ -2859,8 +3031,12 @@
       </c>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="15"/>
+      <c r="D97" s="17">
+        <v>561</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F97" s="15"/>
       <c r="G97" s="18"/>
       <c r="H97" s="18"/>
@@ -2878,8 +3054,12 @@
       </c>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="15"/>
+      <c r="D98" s="17">
+        <v>561</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F98" s="15"/>
       <c r="G98" s="18"/>
       <c r="H98" s="18"/>
@@ -2897,8 +3077,12 @@
       </c>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="15"/>
+      <c r="D99" s="17">
+        <v>561</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F99" s="15"/>
       <c r="G99" s="18"/>
       <c r="H99" s="18"/>
@@ -2916,8 +3100,12 @@
       </c>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="15"/>
+      <c r="D100" s="17">
+        <v>561</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F100" s="15"/>
       <c r="G100" s="18"/>
       <c r="H100" s="18"/>
@@ -2935,8 +3123,12 @@
       </c>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="15"/>
+      <c r="D101" s="17">
+        <v>561</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F101" s="15"/>
       <c r="G101" s="18"/>
       <c r="H101" s="18"/>
@@ -2954,8 +3146,12 @@
       </c>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="15"/>
+      <c r="D102" s="17">
+        <v>561</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F102" s="15"/>
       <c r="G102" s="18"/>
       <c r="H102" s="18"/>
@@ -2973,8 +3169,12 @@
       </c>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="15"/>
+      <c r="D103" s="17">
+        <v>561</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F103" s="15"/>
       <c r="G103" s="18"/>
       <c r="H103" s="18"/>
@@ -2992,8 +3192,12 @@
       </c>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="15"/>
+      <c r="D104" s="17">
+        <v>561</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="F104" s="15"/>
       <c r="G104" s="18"/>
       <c r="H104" s="18"/>
@@ -3012,6 +3216,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="10dfcaad-5ba3-4425-8df9-33f19d69d812">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7420ea4f-ed44-4c57-a9f4-04b8532e4cea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002AC28A9BD7C53A4DBF1B1D52294CD6C3" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fa337c83d4c02ad03ce0e30d0920086">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="10dfcaad-5ba3-4425-8df9-33f19d69d812" xmlns:ns3="06009c42-7f0d-4ebe-8b0b-0630e503b72e" xmlns:ns4="7420ea4f-ed44-4c57-a9f4-04b8532e4cea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08808030f98d804b215788164f1fea96" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="10dfcaad-5ba3-4425-8df9-33f19d69d812"/>
@@ -3265,42 +3489,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="10dfcaad-5ba3-4425-8df9-33f19d69d812">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7420ea4f-ed44-4c57-a9f4-04b8532e4cea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC10578-A249-421B-A196-D8FA339E4884}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B01F75-37A5-4BEA-9AE5-E3519F60BF29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="10dfcaad-5ba3-4425-8df9-33f19d69d812"/>
-    <ds:schemaRef ds:uri="06009c42-7f0d-4ebe-8b0b-0630e503b72e"/>
-    <ds:schemaRef ds:uri="7420ea4f-ed44-4c57-a9f4-04b8532e4cea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3324,9 +3516,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B01F75-37A5-4BEA-9AE5-E3519F60BF29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC10578-A249-421B-A196-D8FA339E4884}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="10dfcaad-5ba3-4425-8df9-33f19d69d812"/>
+    <ds:schemaRef ds:uri="06009c42-7f0d-4ebe-8b0b-0630e503b72e"/>
+    <ds:schemaRef ds:uri="7420ea4f-ed44-4c57-a9f4-04b8532e4cea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/resources/template/Device_Submission_Template.xlsx
+++ b/src/main/resources/template/Device_Submission_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcorsini\Desktop\newNewWorkspace\ATLegMav\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C8BAE4-3C12-4A3C-91CD-F24A46258933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB9E24D-BDEE-4B3F-9C3F-595E51CC33E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="-21710" windowWidth="38620" windowHeight="21220" xr2:uid="{CD2A8F0D-D308-4C0F-B4E5-3D67D29D043D}"/>
+    <workbookView xWindow="13480" yWindow="-14950" windowWidth="21600" windowHeight="11390" xr2:uid="{CD2A8F0D-D308-4C0F-B4E5-3D67D29D043D}"/>
   </bookViews>
   <sheets>
     <sheet name="ADT BYOD Activation - Verizon" sheetId="1" r:id="rId1"/>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F99B35-FC25-4775-B7FF-80F7E6DEFC1B}">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3216,26 +3216,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="10dfcaad-5ba3-4425-8df9-33f19d69d812">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7420ea4f-ed44-4c57-a9f4-04b8532e4cea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002AC28A9BD7C53A4DBF1B1D52294CD6C3" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fa337c83d4c02ad03ce0e30d0920086">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="10dfcaad-5ba3-4425-8df9-33f19d69d812" xmlns:ns3="06009c42-7f0d-4ebe-8b0b-0630e503b72e" xmlns:ns4="7420ea4f-ed44-4c57-a9f4-04b8532e4cea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08808030f98d804b215788164f1fea96" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="10dfcaad-5ba3-4425-8df9-33f19d69d812"/>
@@ -3489,10 +3469,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="10dfcaad-5ba3-4425-8df9-33f19d69d812">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7420ea4f-ed44-4c57-a9f4-04b8532e4cea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B01F75-37A5-4BEA-9AE5-E3519F60BF29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC10578-A249-421B-A196-D8FA339E4884}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="10dfcaad-5ba3-4425-8df9-33f19d69d812"/>
+    <ds:schemaRef ds:uri="06009c42-7f0d-4ebe-8b0b-0630e503b72e"/>
+    <ds:schemaRef ds:uri="7420ea4f-ed44-4c57-a9f4-04b8532e4cea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3516,21 +3528,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC10578-A249-421B-A196-D8FA339E4884}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B01F75-37A5-4BEA-9AE5-E3519F60BF29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="10dfcaad-5ba3-4425-8df9-33f19d69d812"/>
-    <ds:schemaRef ds:uri="06009c42-7f0d-4ebe-8b0b-0630e503b72e"/>
-    <ds:schemaRef ds:uri="7420ea4f-ed44-4c57-a9f4-04b8532e4cea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/src/main/resources/template/Device_Submission_Template.xlsx
+++ b/src/main/resources/template/Device_Submission_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcorsini\Desktop\newNewWorkspace\ATLegMav\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB9E24D-BDEE-4B3F-9C3F-595E51CC33E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329F2B7B-F05C-4B56-9796-A8B0E040284C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13480" yWindow="-14950" windowWidth="21600" windowHeight="11390" xr2:uid="{CD2A8F0D-D308-4C0F-B4E5-3D67D29D043D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD2A8F0D-D308-4C0F-B4E5-3D67D29D043D}"/>
   </bookViews>
   <sheets>
     <sheet name="ADT BYOD Activation - Verizon" sheetId="1" r:id="rId1"/>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F99B35-FC25-4775-B7FF-80F7E6DEFC1B}">
   <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3216,6 +3216,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="10dfcaad-5ba3-4425-8df9-33f19d69d812">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7420ea4f-ed44-4c57-a9f4-04b8532e4cea" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002AC28A9BD7C53A4DBF1B1D52294CD6C3" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fa337c83d4c02ad03ce0e30d0920086">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="10dfcaad-5ba3-4425-8df9-33f19d69d812" xmlns:ns3="06009c42-7f0d-4ebe-8b0b-0630e503b72e" xmlns:ns4="7420ea4f-ed44-4c57-a9f4-04b8532e4cea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08808030f98d804b215788164f1fea96" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="10dfcaad-5ba3-4425-8df9-33f19d69d812"/>
@@ -3469,42 +3489,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="10dfcaad-5ba3-4425-8df9-33f19d69d812">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7420ea4f-ed44-4c57-a9f4-04b8532e4cea" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC10578-A249-421B-A196-D8FA339E4884}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B01F75-37A5-4BEA-9AE5-E3519F60BF29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="10dfcaad-5ba3-4425-8df9-33f19d69d812"/>
-    <ds:schemaRef ds:uri="06009c42-7f0d-4ebe-8b0b-0630e503b72e"/>
-    <ds:schemaRef ds:uri="7420ea4f-ed44-4c57-a9f4-04b8532e4cea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3528,9 +3516,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73B01F75-37A5-4BEA-9AE5-E3519F60BF29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEC10578-A249-421B-A196-D8FA339E4884}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="10dfcaad-5ba3-4425-8df9-33f19d69d812"/>
+    <ds:schemaRef ds:uri="06009c42-7f0d-4ebe-8b0b-0630e503b72e"/>
+    <ds:schemaRef ds:uri="7420ea4f-ed44-4c57-a9f4-04b8532e4cea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>